--- a/固定资产表.xlsx
+++ b/固定资产表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602A3F4-8365-4456-B46D-EAF33DED8EEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1A3B40-A163-4A93-8E00-32E09EE8EFE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
   <si>
     <t>基础属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,14 @@
   </si>
   <si>
     <t>线型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +428,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -574,6 +582,12 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,12 +607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AM8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -892,7 +900,7 @@
     <col min="1" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
     <col min="7" max="10" width="8.88671875" style="2"/>
     <col min="11" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="8.88671875" style="2"/>
@@ -906,54 +914,54 @@
     <col min="32" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="9"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="11"/>
     </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -969,7 +977,7 @@
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1065,8 +1073,14 @@
       <c r="AK2" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AL2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1082,7 +1096,7 @@
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="2">
@@ -1125,7 +1139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1141,7 +1155,7 @@
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="6" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="2">
@@ -1178,7 +1192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1191,7 +1205,7 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="2">
@@ -1228,7 +1242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1255,7 @@
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="6" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="2">
@@ -1284,7 +1298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1311,7 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G7" s="2">
@@ -1325,7 +1339,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1355,7 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="2">
